--- a/Demo/Config/Excel/Server/SceneConfig.xlsx
+++ b/Demo/Config/Excel/Server/SceneConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Fantasy/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Demo/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431971D6-BB28-EB42-B201-56D9FD2275E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E664780A-E143-6146-8678-11A68DABC323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -155,18 +155,9 @@
     </r>
   </si>
   <si>
-    <t>Authentication</t>
-  </si>
-  <si>
-    <t>Authentication1</t>
-  </si>
-  <si>
     <t>KCP</t>
   </si>
   <si>
-    <t>鉴权管理中心</t>
-  </si>
-  <si>
     <t>Map</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -232,6 +223,13 @@
   </si>
   <si>
     <t>ServerConfig的Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Gate</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +698,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -722,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -803,13 +801,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>8</v>
@@ -835,13 +833,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>15</v>
@@ -864,13 +862,13 @@
         <v>20</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -899,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J7" s="7">
         <v>20000</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="16">
@@ -933,15 +931,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="16">
@@ -963,15 +961,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="16">
@@ -994,15 +992,15 @@
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/Config/Excel/Server/SceneConfig.xlsx
+++ b/Demo/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Demo/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E664780A-E143-6146-8678-11A68DABC323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D75513-D46B-524A-8CFF-0A8F154CD65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -698,7 +698,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -943,9 +943,9 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="16">
-      <c r="B9" s="6" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+      <c r="B9" s="6">
+        <f t="shared" ref="B9:B10" si="1">B8+1</f>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
@@ -973,9 +973,9 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="16">
-      <c r="B10" s="6" t="e">
-        <f>B9+1</f>
-        <v>#REF!</v>
+      <c r="B10" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="C10" s="7">
         <f>C9+1</f>

--- a/Demo/Config/Excel/Server/SceneConfig.xlsx
+++ b/Demo/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Demo/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D75513-D46B-524A-8CFF-0A8F154CD65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B116B5C1-73F0-FD41-B2AE-F99DA3E77ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,81 +155,82 @@
     </r>
   </si>
   <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Addressable</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Addressable1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RouteId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据RouteId和Id生成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id不能超过16383</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerConfig的Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Gate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>KCP</t>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Addressable</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Addressable1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chat</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RouteId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntityId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>实体Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据RouteId和Id生成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorldId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id不能超过16383</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServerConfig的Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gate</t>
-  </si>
-  <si>
-    <t>Gate</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -698,7 +699,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -720,16 +721,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -801,13 +802,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>8</v>
@@ -833,13 +834,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>15</v>
@@ -862,13 +863,13 @@
         <v>20</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -897,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="J7" s="7">
         <v>20000</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="16">
@@ -931,15 +932,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="16">
@@ -961,15 +962,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="16">
@@ -992,15 +993,15 @@
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/Config/Excel/Server/SceneConfig.xlsx
+++ b/Demo/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Demo/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B116B5C1-73F0-FD41-B2AE-F99DA3E77ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5488D3EB-D8CF-DE45-9E93-75705873345C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,7 +699,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/Demo/Config/Excel/Server/SceneConfig.xlsx
+++ b/Demo/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Demo/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5488D3EB-D8CF-DE45-9E93-75705873345C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731490AF-848B-F44B-8C10-4BA953D5CEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RouteId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>路由Id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -231,6 +227,10 @@
   </si>
   <si>
     <t>KCP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerConfigId</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +699,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -721,16 +721,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -802,10 +802,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>28</v>
@@ -834,13 +834,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>15</v>
@@ -863,13 +863,13 @@
         <v>20</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="J7" s="7">
         <v>20000</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="16">

--- a/Demo/Config/Excel/Server/SceneConfig.xlsx
+++ b/Demo/Config/Excel/Server/SceneConfig.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Demo/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731490AF-848B-F44B-8C10-4BA953D5CEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92296121-0711-6D40-8561-F203ABF3944A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfig" sheetId="8" r:id="rId1"/>
+    <sheet name="SceneTypeConfig" sheetId="9" r:id="rId2"/>
+    <sheet name="SceneSubTypeConfig" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -79,9 +81,6 @@
     </r>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
     <t>协议类型</t>
   </si>
   <si>
@@ -98,9 +97,6 @@
   </si>
   <si>
     <t>SceneType</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>NetworkProtocol</t>
@@ -159,10 +155,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Map1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>MAP</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -171,10 +163,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Addressable1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Chat</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -220,9 +208,6 @@
   </si>
   <si>
     <t>Gate</t>
-  </si>
-  <si>
-    <t>Gate</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -231,6 +216,60 @@
   </si>
   <si>
     <t>ServerConfigId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Scene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Scene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneSubType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene子类型</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -698,8 +737,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -708,8 +747,7 @@
     <col min="4" max="4" width="24.1640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="26.5" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="7" max="8" width="22" customWidth="1"/>
     <col min="9" max="11" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -721,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -781,7 +819,7 @@
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -802,80 +840,80 @@
         <v>7</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="16">
       <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="16">
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -898,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J7" s="7">
         <v>20000</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="16">
@@ -932,15 +970,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="16">
@@ -962,15 +1000,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="16">
@@ -993,20 +1031,218 @@
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{15F644DD-60B4-CB4A-9165-AA4016BB4995}">
+          <x14:formula1>
+            <xm:f>SceneTypeConfig!$B$3:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>G7 G8 G9 G10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4CF498A6-1194-B84A-AEF8-A909AEEA8EBB}">
+          <x14:formula1>
+            <xm:f>SceneSubTypeConfig!$B$3:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>H7 H8 H9 H10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3B333A-6462-3D48-AFCB-3CEC23B6A23C}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="16">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="16">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="16">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="16">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="16">
+      <c r="A5" s="7">
+        <f>A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="16">
+      <c r="A6" s="7">
+        <f t="shared" ref="A6" si="0">A5+1</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7AAEF2-1987-664D-AE77-11FB0F03C36D}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="16">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="16">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="16">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="16">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="16">
+      <c r="A5" s="7">
+        <f>A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="16">
+      <c r="A6" s="7">
+        <f t="shared" ref="A6" si="0">A5+1</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>